--- a/Raw_SRB_data/Crizotinib_only/Crizonitib_assay_2.xlsx
+++ b/Raw_SRB_data/Crizotinib_only/Crizonitib_assay_2.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11505"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="7650"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -345,8 +345,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="H25" sqref="H25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10:B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Raw_SRB_data/Crizotinib_only/Crizonitib_assay_2.xlsx
+++ b/Raw_SRB_data/Crizotinib_only/Crizonitib_assay_2.xlsx
@@ -346,7 +346,7 @@
   <dimension ref="A1:L29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10:B14"/>
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -870,8 +870,8 @@
         <v>0.24479999999999999</v>
       </c>
       <c r="C21">
-        <f>B21/B20*C20</f>
-        <v>80.473372781065095</v>
+        <f>B21/0.3042*C20</f>
+        <v>80.473372781065081</v>
       </c>
     </row>
     <row r="22" spans="2:11" x14ac:dyDescent="0.25">
@@ -879,8 +879,8 @@
         <v>0.20519999999999999</v>
       </c>
       <c r="C22">
-        <f t="shared" ref="C22:C29" si="1">B22/B21*C21</f>
-        <v>67.455621301775153</v>
+        <f t="shared" ref="C22:C29" si="1">B22/0.3042*C21</f>
+        <v>54.283813591961049</v>
       </c>
     </row>
     <row r="23" spans="2:11" x14ac:dyDescent="0.25">
@@ -889,7 +889,7 @@
       </c>
       <c r="C23">
         <f t="shared" si="1"/>
-        <v>54.503616042077589</v>
+        <v>29.586641333159569</v>
       </c>
     </row>
     <row r="24" spans="2:11" x14ac:dyDescent="0.25">
@@ -898,7 +898,7 @@
       </c>
       <c r="C24">
         <f t="shared" si="1"/>
-        <v>41.880341880341888</v>
+        <v>12.390986541237769</v>
       </c>
     </row>
     <row r="25" spans="2:11" x14ac:dyDescent="0.25">
@@ -907,7 +907,7 @@
       </c>
       <c r="C25">
         <f t="shared" si="1"/>
-        <v>22.024983563445101</v>
+        <v>2.7291127490563127</v>
       </c>
     </row>
     <row r="26" spans="2:11" x14ac:dyDescent="0.25">
@@ -916,7 +916,7 @@
       </c>
       <c r="C26">
         <f t="shared" si="1"/>
-        <v>18.54043392504931</v>
+        <v>0.50598934597888234</v>
       </c>
     </row>
     <row r="27" spans="2:11" x14ac:dyDescent="0.25">
@@ -925,7 +925,7 @@
       </c>
       <c r="C27">
         <f t="shared" si="1"/>
-        <v>19.98685075608153</v>
+        <v>0.1011313354224722</v>
       </c>
     </row>
     <row r="28" spans="2:11" x14ac:dyDescent="0.25">
@@ -934,7 +934,7 @@
       </c>
       <c r="C28">
         <f t="shared" si="1"/>
-        <v>19.658119658119663</v>
+        <v>1.9880518929203932E-2</v>
       </c>
     </row>
     <row r="29" spans="2:11" x14ac:dyDescent="0.25">
@@ -943,7 +943,7 @@
       </c>
       <c r="C29">
         <f t="shared" si="1"/>
-        <v>15.779092702169629</v>
+        <v>3.1369655115114688E-3</v>
       </c>
     </row>
   </sheetData>
